--- a/Input Documents/CRS/Review/PO_SAG_CRS_ML_TR.xlsx
+++ b/Input Documents/CRS/Review/PO_SAG_CRS_ML_TR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\college materials\graduatio project\ML_SWProcess_Documents\Input Documents\CRS\Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68DBDBA-9A9B-4F9F-8B04-3852C183093D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C97267D-0DC5-4503-8D43-895CED6225B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10812" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
   <si>
     <t>Entry Date</t>
   </si>
@@ -176,9 +176,6 @@
     <t>req 010</t>
   </si>
   <si>
-    <t xml:space="preserve">crs requiremnts </t>
-  </si>
-  <si>
     <t xml:space="preserve">inner sginals are not clarified </t>
   </si>
   <si>
@@ -188,61 +185,88 @@
     <t>should be changed to' the text rec class shall return the Output_Audio_Files_TextRecog to the ECU'</t>
   </si>
   <si>
-    <t>PO_ٍSAG_CRS_ML_ObjRecog_Review_001</t>
-  </si>
-  <si>
-    <t>PO_ٍSAG_CRS_ML_ObjRecog_Review_002</t>
-  </si>
-  <si>
-    <t>PO_ٍSAG_CRS_ML_ObjRecog_Review_003</t>
-  </si>
-  <si>
-    <t>PO_ٍSAG_CRS_ML_ObjRecog_Review_004</t>
-  </si>
-  <si>
     <t>[16-11-2022]</t>
   </si>
   <si>
-    <t>PO_ٍSAG_CRS_ML_ObjRecog_Review_005</t>
-  </si>
-  <si>
-    <t>PO_ٍSAG_CRS_ML_ObjRecog_Review_006</t>
-  </si>
-  <si>
-    <t>PO_ٍSAG_CRS_ML_ObjRecog_Review_007</t>
-  </si>
-  <si>
-    <t>PO_ٍSAG_CRS_ML_ObjRecog_Review_008</t>
-  </si>
-  <si>
-    <t>PO_ٍSAG_CRS_ML_ObjRecog_Review_009</t>
-  </si>
-  <si>
-    <t>PO_ٍSAG_CRS_ML_ObjRecog_Review_010</t>
-  </si>
-  <si>
-    <t>PO_ٍSAG_CRS_ML_ObjRecog_Review_011</t>
-  </si>
-  <si>
-    <t>PO_ٍSAG_CRS_ML_ObjRecog_Review_012</t>
-  </si>
-  <si>
-    <t>PO_ٍSAG_CRS_ML_ObjRecog_Review_013</t>
-  </si>
-  <si>
-    <t>PO_ٍSAG_CRS_ML_ObjRecog_Review_014</t>
-  </si>
-  <si>
-    <t>PO_ٍSAG_CRS_ML_ObjRecog_Review_015</t>
-  </si>
-  <si>
-    <t>PO_ٍSAG_CRS_ML_ObjRecog_Review_016</t>
-  </si>
-  <si>
     <t>EA</t>
   </si>
   <si>
     <t>v1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requiremnts </t>
+  </si>
+  <si>
+    <t>PO_ٍSAG_CRS_ML_Text_Recog_Review_001</t>
+  </si>
+  <si>
+    <t>PO_ٍSAG_CRS_ML_text_Recog_Review_002</t>
+  </si>
+  <si>
+    <t>PO_ٍSAG_CRS_ML_Text_Recog_Review_003</t>
+  </si>
+  <si>
+    <t>PO_ٍSAG_CRS_ML_Text_Recog_Review_004</t>
+  </si>
+  <si>
+    <t>PO_ٍSAG_CRS_ML_Text_Recog_Review_005</t>
+  </si>
+  <si>
+    <t>PO_ٍSAG_CRS_ML_Text_Recog_Review_006</t>
+  </si>
+  <si>
+    <t>PO_ٍSAG_CRS_ML_Text_Recog_Review_007</t>
+  </si>
+  <si>
+    <t>PO_ٍSAG_CRS_ML_Text_Recog_Review_008</t>
+  </si>
+  <si>
+    <t>PO_ٍSAG_CRS_ML_Text_Recog_Review_009</t>
+  </si>
+  <si>
+    <t>PO_ٍSAG_CRS_ML_Text_Recog_Review_010</t>
+  </si>
+  <si>
+    <t>PO_ٍSAG_CRS_ML_Text_Recog_Review_011</t>
+  </si>
+  <si>
+    <t>PO_ٍSAG_CRS_ML_Text_Recog_Review_012</t>
+  </si>
+  <si>
+    <t>PO_ٍSAG_CRS_ML_Text_Recog_Review_013</t>
+  </si>
+  <si>
+    <t>PO_ٍSAG_CRS_ML_Text_Recog_Review_014</t>
+  </si>
+  <si>
+    <t>PO_ٍSAG_CRS_ML_Text_Recog_Review_015</t>
+  </si>
+  <si>
+    <t>PO_ٍSAG_CRS_ML_Text_Recog_Review_016</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>the definition should be more descritpive</t>
+  </si>
+  <si>
+    <t>it should be like'conversion of images of typed, handwritten or printed text into machine-encoded text, whether from a scanned document, a photo of a document, a scene-photo  or from subtitle text superimposed on an image'</t>
+  </si>
+  <si>
+    <t>PO_ٍSAG_CRS_ML_Text_Recog_Review_017</t>
+  </si>
+  <si>
+    <t>PO_ٍSAG_CRS_ML_Text_Recog_Review_018</t>
+  </si>
+  <si>
+    <t>use more descriptive signal names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the input to the class should be Input_Frames and the output text should be Text_Text_Recog_Rsult </t>
+  </si>
+  <si>
+    <t>[18-11-2022]</t>
   </si>
 </sst>
 </file>
@@ -336,15 +360,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -606,8 +624,8 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -647,442 +665,470 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="F17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="4" t="s">
+      <c r="F19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
